--- a/DosageChart/data/Dosage Chart.xlsx
+++ b/DosageChart/data/Dosage Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjoy/Documents/Git/LVRWeb/DosageChart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EA275-CD0A-F143-B071-DCAC4F48C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC9209-8070-7D47-BA6C-0E841D993033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20200" xr2:uid="{5AFE42F4-201C-9844-8A71-5A778C47B6AE}"/>
+    <workbookView xWindow="8920" yWindow="780" windowWidth="25280" windowHeight="20200" xr2:uid="{5AFE42F4-201C-9844-8A71-5A778C47B6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>Excenel</t>
   </si>
   <si>
-    <t>Flunixin Meglamine</t>
-  </si>
-  <si>
     <t>Prevail</t>
   </si>
   <si>
@@ -172,7 +169,10 @@
     <t>Noromycin 300</t>
   </si>
   <si>
-    <t>WT = Withdrawal time                 TD = Transdermal (On Skin)                        SC = Subcutaneous (Under Skin)</t>
+    <t>BanamineTransdermal</t>
+  </si>
+  <si>
+    <t>WT = Withdrawal time                 TD = Transdermal (On Skin)                   SC = Subcutaneous (Under Skin)                IV = In the vein</t>
   </si>
 </sst>
 </file>
@@ -272,9 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,12 +279,15 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,12 +628,13 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:T18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="7" width="4.1640625" customWidth="1"/>
@@ -660,1052 +661,1052 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>28</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>4.5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>13.5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>18</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>22.5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>27</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>31.5</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>36</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>40.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>45</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>49.5</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>54</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>58.5</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>63</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>67.5</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>28</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>4.5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>9</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>13.5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>18</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>22.5</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>27</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>31.5</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>36</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>40.5</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>45</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>49.5</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>54</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>58.5</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>63</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <v>67.5</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>28</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>13.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>18</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>22.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>27</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>31.5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>36</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>40.5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>45</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>49.5</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>54</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>58.5</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>63</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>67.5</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
         <v>4.5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>5.7</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>6.8</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>8</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>9.1</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="N5" s="8">
-        <v>11.4</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="N5" s="7">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7">
         <v>12.5</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>13.6</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>14.7</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>15.9</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>17</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
         <v>4.5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>5.7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>6.8</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>8</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>9.1</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="N6" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="4">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4">
         <v>12.5</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>13.6</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>14.7</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>15.9</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>17</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>38</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>18</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>30</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>36</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>42</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>48</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>54</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>60</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>66</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>72</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>78</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>84</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>90</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>38</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>18</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>24</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>30</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>36</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>42</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>48</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>54</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>60</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>66</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>72</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>78</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>84</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>90</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>38</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>12</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>18</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>24</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>30</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>36</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>42</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>48</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>54</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>60</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>66</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>72</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>78</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>84</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>90</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>13</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>4.5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>7.5</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>10.5</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>13.5</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>15.5</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>17</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>18.5</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>20</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>21.5</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>23</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>24.5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>4.5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>7.5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>9</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>10.5</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>12</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>13.5</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>15.5</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>17</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>18.5</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>20</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>21.5</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <v>23</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <v>24.5</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>1.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>4.5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>6</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>7.5</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>10.5</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>12</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>13.5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>15.5</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>17</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>18.5</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>20</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>21.5</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>23</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <v>24.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>28</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>3.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>7</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>10.5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>14</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>17</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>20.5</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>24</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>27.5</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>31</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>34</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>37.5</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>41</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>44.5</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <v>48</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <v>51.5</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>6</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>7</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>8</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>9</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>10</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>11</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>12</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>13</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>14</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>15</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>6</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>7</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>8</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>9</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>10</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>11</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>12</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>13</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>14</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="7">
         <v>15</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>6</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>7</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>8</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>9</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>10</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>11</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>12</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>13</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>14</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>15</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8">
-        <v>6</v>
-      </c>
-      <c r="G17" s="8">
-        <v>9</v>
-      </c>
-      <c r="H17" s="8">
-        <v>12</v>
-      </c>
-      <c r="I17" s="8">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8">
-        <v>18</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>21</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>24</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>27</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>30</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>33</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <v>36</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>39</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <v>42</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="7">
         <v>45</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1717,7 +1718,7 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
 </worksheet>
 </file>
--- a/DosageChart/data/Dosage Chart.xlsx
+++ b/DosageChart/data/Dosage Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjoy/Documents/Git/LVRWeb/DosageChart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC9209-8070-7D47-BA6C-0E841D993033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B3743-F842-024C-8CAA-143193314AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="780" windowWidth="25280" windowHeight="20200" xr2:uid="{5AFE42F4-201C-9844-8A71-5A778C47B6AE}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,52 +846,52 @@
         <v>28</v>
       </c>
       <c r="E4" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="4">
-        <v>13.5</v>
-      </c>
       <c r="H4" s="4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
         <v>18</v>
       </c>
-      <c r="I4" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4">
         <v>27</v>
       </c>
-      <c r="K4" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4">
+        <v>33</v>
+      </c>
+      <c r="P4" s="4">
         <v>36</v>
       </c>
-      <c r="M4" s="4">
-        <v>40.5</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="Q4" s="4">
+        <v>39</v>
+      </c>
+      <c r="R4" s="4">
+        <v>42</v>
+      </c>
+      <c r="S4" s="4">
         <v>45</v>
       </c>
-      <c r="O4" s="4">
-        <v>49.5</v>
-      </c>
-      <c r="P4" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>58.5</v>
-      </c>
-      <c r="R4" s="4">
-        <v>63</v>
-      </c>
-      <c r="S4" s="4">
-        <v>67.5</v>
-      </c>
       <c r="T4" s="4">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">

--- a/DosageChart/data/Dosage Chart.xlsx
+++ b/DosageChart/data/Dosage Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjoy/Documents/Git/LVRWeb/DosageChart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B3743-F842-024C-8CAA-143193314AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66360FC0-3B19-C346-9C88-C8B08746A419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="780" windowWidth="25280" windowHeight="20200" xr2:uid="{5AFE42F4-201C-9844-8A71-5A778C47B6AE}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>28</v>
       </c>
       <c r="E2" s="4">
@@ -782,7 +782,7 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>28</v>
       </c>
       <c r="E3" s="7">
@@ -842,7 +842,7 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>28</v>
       </c>
       <c r="E4" s="4">
@@ -904,7 +904,7 @@
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>18</v>
       </c>
       <c r="E5" s="7">
@@ -964,7 +964,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>18</v>
       </c>
       <c r="E6" s="4">
@@ -1026,7 +1026,7 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>38</v>
       </c>
       <c r="E7" s="7">
@@ -1086,7 +1086,7 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>38</v>
       </c>
       <c r="E8" s="4">
@@ -1146,7 +1146,7 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>38</v>
       </c>
       <c r="E9" s="7">
@@ -1208,7 +1208,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>13</v>
       </c>
       <c r="E10" s="4">
@@ -1268,7 +1268,7 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
       <c r="E11" s="7">
@@ -1328,7 +1328,7 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
       <c r="E12" s="4">
@@ -1390,7 +1390,7 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>28</v>
       </c>
       <c r="E13" s="7">
@@ -1452,7 +1452,7 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>4</v>
       </c>
       <c r="E14" s="4">
@@ -1512,7 +1512,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>4</v>
       </c>
       <c r="E15" s="7">
@@ -1572,7 +1572,7 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
       <c r="E16" s="4">
@@ -1632,7 +1632,7 @@
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>8</v>
       </c>
       <c r="E17" s="7">
